--- a/data/1_raw_videos/interesting_seconds.xlsx
+++ b/data/1_raw_videos/interesting_seconds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossier\TrackingNatation\TrackingSwimmingENPC\data\0_raw_videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossier\TrackingNatation\TrackingSwimmingENPC\data\1_raw_videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D4DDE57-7D4E-4176-BE32-CD21A9C6AD59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF770A-C5D7-4C8E-8A9D-F02AB845E538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4630" yWindow="2230" windowWidth="14400" windowHeight="7360" xr2:uid="{F1D57C7C-43AC-4DD6-9C77-44AAAAD6268D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F1D57C7C-43AC-4DD6-9C77-44AAAAD6268D}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/1_raw_videos/interesting_seconds.xlsx
+++ b/data/1_raw_videos/interesting_seconds.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dossier\TrackingNatation\TrackingSwimmingENPC\data\1_raw_videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FF770A-C5D7-4C8E-8A9D-F02AB845E538}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DD2AB2-C4FA-49F4-9F37-98C69AAB682B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F1D57C7C-43AC-4DD6-9C77-44AAAAD6268D}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
